--- a/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
+++ b/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A070A-A155-4886-BA5E-FD20D86117F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804E36A-A966-4D08-8AF8-180566320BC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="12" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="204">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -678,22 +678,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>入力のない箇所が分かるように黄色ハッチングする</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キイロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>各項目に変更内容を入力した後で、「変更」ボタンを押すと、変更の確認を促す警告を表示する</t>
     <rPh sb="0" eb="3">
       <t>カクコウモク</t>
@@ -2102,16 +2086,6 @@
     <t>フタムラ　ケンジ</t>
   </si>
   <si>
-    <t>追加用テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力必須</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -2753,6 +2727,54 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・権限レベルテーブルを追加テーブルの横に表示しておく</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力のない箇所が分かるように赤色ハッチングする</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各マスタ画面のボタンとテーブルの配置を変更した</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3227,21 +3249,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3292,6 +3299,21 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7349,13 +7371,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>510324</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>103674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>752876</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>51092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7410,13 +7432,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>252621</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>744484</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>87586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7470,13 +7492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>512143</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>136678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>135744</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>158765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7530,13 +7552,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47080</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>284514</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>55662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7651,16 +7673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>892387</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74189</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3387</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>803186</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>146813</xdr:rowOff>
+      <xdr:colOff>1011004</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7675,8 +7697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5556353" y="5278269"/>
-          <a:ext cx="1012925" cy="576245"/>
+          <a:off x="5776114" y="3861098"/>
+          <a:ext cx="1007617" cy="560812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7715,15 +7737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>14431</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>64462</xdr:rowOff>
+      <xdr:colOff>570056</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>112087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1046786</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>53879</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507036</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7738,8 +7760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10024340" y="6206644"/>
-          <a:ext cx="4322810" cy="1929053"/>
+          <a:off x="10745931" y="8843337"/>
+          <a:ext cx="4318480" cy="1894417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7775,15 +7797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>164523</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>22129</xdr:rowOff>
+      <xdr:colOff>720148</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>898620</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>64462</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358870</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7798,8 +7820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10174432" y="6325947"/>
-          <a:ext cx="4024552" cy="1012151"/>
+          <a:off x="10896023" y="8959754"/>
+          <a:ext cx="4020222" cy="994833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7913,16 +7935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>822615</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>149127</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282865</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>392547</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>8657</xdr:rowOff>
+      <xdr:colOff>948172</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>56282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7937,8 +7959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10832524" y="7584400"/>
-          <a:ext cx="666750" cy="344439"/>
+          <a:off x="11554115" y="10198002"/>
+          <a:ext cx="665307" cy="335780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7983,16 +8005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>646546</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>79277</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106796</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>126902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>528203</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>20671</xdr:rowOff>
+      <xdr:colOff>1083828</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>68296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8007,8 +8029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12850091" y="7514550"/>
-          <a:ext cx="978476" cy="426303"/>
+          <a:off x="13568796" y="10128152"/>
+          <a:ext cx="977032" cy="417644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8061,7 +8083,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>468313</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8121,8 +8143,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8137,8 +8159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="79375" y="1698625"/>
-          <a:ext cx="912813" cy="325438"/>
+          <a:off x="79375" y="1648114"/>
+          <a:ext cx="912091" cy="464704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8178,14 +8200,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29729</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8200,8 +8222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73025" y="2216150"/>
-          <a:ext cx="912813" cy="325438"/>
+          <a:off x="73025" y="2300575"/>
+          <a:ext cx="912091" cy="315336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8409,16 +8431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>799953</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>21233</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>101918</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>78959</xdr:rowOff>
+      <xdr:colOff>625793</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142459</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8433,8 +8455,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8770298" y="6064681"/>
-          <a:ext cx="2608344" cy="1400715"/>
+          <a:off x="9308953" y="7228483"/>
+          <a:ext cx="2588090" cy="1327726"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8464,13 +8486,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>39831</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>78317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>702731</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8524,13 +8546,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>189923</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>35983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>554565</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8615,13 +8637,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>443924</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>1345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>13856</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>22512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8683,16 +8705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>36893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167740</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771072</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584837</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>29196</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>802552</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8707,8 +8729,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5802985" y="5203947"/>
-          <a:ext cx="547944" cy="2379559"/>
+          <a:off x="3850822" y="7202632"/>
+          <a:ext cx="31480" cy="1696439"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8737,15 +8759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>353121</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>56911</xdr:rowOff>
+      <xdr:colOff>364667</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>578257</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>129535</xdr:rowOff>
+      <xdr:colOff>589803</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8760,8 +8782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3411339" y="5260991"/>
-          <a:ext cx="1028010" cy="576245"/>
+          <a:off x="3424212" y="5956638"/>
+          <a:ext cx="1033318" cy="557533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8799,16 +8821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119486</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>124135</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>408123</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>89499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>55986</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>24296</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633259</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8823,8 +8845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8089831" y="5328215"/>
-          <a:ext cx="1038626" cy="571656"/>
+          <a:off x="3467668" y="3807135"/>
+          <a:ext cx="1033318" cy="580138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8864,14 +8886,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8886,8 +8908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="79375" y="2613025"/>
-          <a:ext cx="914400" cy="322263"/>
+          <a:off x="79375" y="2711161"/>
+          <a:ext cx="912091" cy="315336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8990,13 +9012,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>117927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>591206</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9149,13 +9171,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>531345</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>153890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>773897</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>36494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9210,13 +9232,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273642</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>108606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>765505</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9270,13 +9292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533164</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>156765</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>55705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9330,13 +9352,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68101</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>98388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>305535</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>120475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9390,13 +9412,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>491342</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>140536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>620402</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>153280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9450,13 +9472,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>364943</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>138679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>716953</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>118780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9510,13 +9532,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>423935</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>107496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>781769</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9561,6 +9583,142 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F369DEB-0F7B-4C85-BA44-D4B1A7A2D650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212272" y="1916547"/>
+          <a:ext cx="1166091" cy="357908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［変更・削除］</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BDF532-8303-4DDF-8C6A-49F8E49F1BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087581" y="4886037"/>
+          <a:ext cx="1166091" cy="357908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［追加］</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9599,7 +9757,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$14:$Z$15" spid="_x0000_s3363"/>
+                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3379"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10074,14 +10232,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>578591</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103675</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10096,8 +10254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1240805" y="1899818"/>
-          <a:ext cx="4774619" cy="3606540"/>
+          <a:off x="1240805" y="1986642"/>
+          <a:ext cx="4774619" cy="3519715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10196,16 +10354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>267607</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>157423</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>341690</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>62169</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10220,8 +10378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6844953" y="6742608"/>
-          <a:ext cx="1171614" cy="563265"/>
+          <a:off x="3868965" y="5763566"/>
+          <a:ext cx="1171726" cy="557888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10261,13 +10419,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14431</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1046786</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>27961</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10283,8 +10441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11353717" y="8692687"/>
-          <a:ext cx="4325283" cy="1948845"/>
+          <a:off x="11349181" y="9246044"/>
+          <a:ext cx="4318480" cy="1894417"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -10911,13 +11069,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>37421</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>838827</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>62716</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10964,13 +11122,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>39831</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>156071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>702731</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>145488</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10986,8 +11144,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3496045" y="8810214"/>
-          <a:ext cx="5253043" cy="1948845"/>
+          <a:off x="3500581" y="9363571"/>
+          <a:ext cx="5250775" cy="1894417"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -11175,13 +11333,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>782798</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>54876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>705556</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>43022</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11226,16 +11384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38301</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>153605</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428374</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211666</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42874</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547310</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11250,8 +11408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4710647" y="6738790"/>
-          <a:ext cx="980834" cy="547788"/>
+          <a:off x="3884588" y="7492391"/>
+          <a:ext cx="1343579" cy="542412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11289,16 +11447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472577</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2873</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>436292</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>21016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409076</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>72249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>427220</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11313,8 +11471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244984" y="6752688"/>
-          <a:ext cx="1034030" cy="563265"/>
+          <a:off x="1760721" y="5736016"/>
+          <a:ext cx="1034142" cy="559233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11660,13 +11818,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146206</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>139338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990657</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>44084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11682,8 +11840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1463243" y="6724523"/>
-          <a:ext cx="1887105" cy="563265"/>
+          <a:off x="1470635" y="7487195"/>
+          <a:ext cx="1577365" cy="557889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11996,7 +12154,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>179991</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12050,6 +12208,142 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535214</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13194</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E2A9C2-3508-42A9-AE9C-88D10AB00AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1197428" y="1705428"/>
+          <a:ext cx="1183409" cy="349249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［変更・削除］</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553357</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31337</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660C7740-78E8-4946-AB76-B49FFD3BDD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1215571" y="6558642"/>
+          <a:ext cx="1183409" cy="349249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［追加］</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12065,8 +12359,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>752593</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>125431</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12081,8 +12375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1215123" y="2132345"/>
-          <a:ext cx="7518087" cy="1944197"/>
+          <a:off x="1218818" y="2116218"/>
+          <a:ext cx="7698061" cy="2002211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12181,16 +12475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>259767</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>149584</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>208418</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>54331</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553132</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12205,8 +12499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3709150" y="5253103"/>
-          <a:ext cx="1171614" cy="563265"/>
+          <a:off x="5348838" y="4231726"/>
+          <a:ext cx="1173294" cy="557890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12246,13 +12540,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14431</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>38544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1046786</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>27961</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12268,7 +12562,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11469831" y="8801544"/>
+          <a:off x="11469831" y="9792144"/>
           <a:ext cx="4328005" cy="1970617"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
@@ -12550,7 +12844,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>499767</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>141111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12750,13 +13044,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1009520</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>88829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>315967</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>146556</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12803,13 +13097,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>39831</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>156071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>702731</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>145488</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12825,7 +13119,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3665681" y="8919071"/>
+          <a:off x="3665681" y="9909671"/>
           <a:ext cx="5196800" cy="1970617"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
@@ -13014,13 +13308,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139959</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>68566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>707103</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>11664</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13067,13 +13361,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>469474</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>145765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>407654</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>35036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13128,16 +13422,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182515</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>151824</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128086</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119015</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>56571</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162229</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13152,8 +13446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5968071" y="5255343"/>
-          <a:ext cx="1034030" cy="563265"/>
+          <a:off x="2495729" y="4243039"/>
+          <a:ext cx="1034143" cy="557890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13323,7 +13617,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>744753</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51741</xdr:rowOff>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13338,8 +13632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9078147" y="1497345"/>
-          <a:ext cx="744754" cy="2670137"/>
+          <a:off x="9261816" y="1485249"/>
+          <a:ext cx="744866" cy="2605965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13513,8 +13807,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1003457</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7839</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13529,8 +13823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262840" y="1536543"/>
-          <a:ext cx="721234" cy="2587037"/>
+          <a:off x="8446509" y="1524447"/>
+          <a:ext cx="721234" cy="2394410"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -13579,7 +13873,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>394478</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>24031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13628,6 +13922,142 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526143</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13194</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BE5DB7-0B53-4C00-B4E8-7822DBAD6709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188357" y="1823358"/>
+          <a:ext cx="1192480" cy="340177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［変更・削除］</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671285</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0DA9DF-27B3-49F7-BF50-6ADFD5F549EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1233714" y="5134429"/>
+          <a:ext cx="762000" cy="263071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>［追加］</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13666,7 +14096,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$27:$H$29" spid="_x0000_s15423"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15455"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14203,6 +14633,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>90714</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>141514</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="図 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D999379-22E4-4B7E-BB2F-9C38981C6A85}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15456"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="816429" y="7574643"/>
+              <a:ext cx="2196192" cy="504371"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -14505,8 +15000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592298EE-EEB0-431B-8895-874AB8F0B5B9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -14536,7 +15031,7 @@
         <v>20190818</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -14547,7 +15042,7 @@
         <v>20190819</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -14558,15 +15053,19 @@
         <v>20190819</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="12">
+        <v>20190820</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="34">
@@ -14941,10 +15440,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A32CC-A69D-4F2E-8DD5-61F6A3FCE595}">
-  <dimension ref="C14:O39"/>
+  <dimension ref="C14:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -14966,381 +15465,376 @@
   <sheetData>
     <row r="14" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="D16" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
+        <v>188</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
+        <v>189</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="E43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15354,7 +15848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C666D1-E849-4E8E-97B7-63A0DE9C13D3}">
   <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
@@ -15362,7 +15856,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -15372,180 +15866,180 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="3:16" s="61" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" s="61" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="61" t="s">
+    <row r="25" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="P25" s="59"/>
-    </row>
-    <row r="26" spans="3:16" s="61" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="P26" s="59"/>
-    </row>
-    <row r="27" spans="3:16" s="61" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -15557,10 +16051,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC621F0-6118-4D18-B45B-83CA3F500837}">
-  <dimension ref="C15:L30"/>
+  <dimension ref="C15:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -15582,170 +16076,166 @@
   <sheetData>
     <row r="15" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="E15" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="40" t="s">
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="52">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="57">
+      <c r="E16" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="53">
         <v>1</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="58" t="s">
+      <c r="H16" s="53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="49">
+        <v>2</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="G17" s="50">
+        <v>1</v>
+      </c>
+      <c r="H17" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="58">
-        <v>1</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="54">
-        <v>2</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="55">
-        <v>1</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>199</v>
+      <c r="F18" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C27" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="2" t="s">
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J36" s="43">
+        <v>1</v>
+      </c>
+      <c r="K36" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J29" s="46">
-        <v>0</v>
-      </c>
-      <c r="K29" s="47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="J30" s="48">
-        <v>1</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -15758,17 +16248,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C0342-B36C-4B9E-9B04-7A47E668D330}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -15778,77 +16268,82 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -15865,7 +16360,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -15892,10 +16387,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15914,7 +16409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>54</v>
@@ -15925,10 +16420,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15936,10 +16431,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15958,7 +16453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>33</v>
@@ -15969,10 +16464,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15980,10 +16475,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15991,10 +16486,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16002,10 +16497,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16013,10 +16508,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16357,216 +16852,216 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
+      <c r="A1" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16614,7 +17109,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -16629,72 +17124,72 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -16731,7 +17226,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -16741,42 +17236,42 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -16787,10 +17282,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94BF4F-2656-4B2D-89F5-04E6049772B6}">
-  <dimension ref="C13:Z28"/>
+  <dimension ref="C15:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -16811,321 +17306,173 @@
     <col min="27" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="X13" s="43" t="s">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="X15" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-    </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="6" t="s">
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="Z16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="53" t="s">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="53" t="s">
+      <c r="E17" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="M15" s="53" t="s">
+      <c r="L17" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="53" t="s">
+      <c r="O17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="53" t="s">
+      <c r="P17" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R17" s="50">
         <v>4</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S17" s="50">
         <v>4</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T17" s="50">
         <v>20250</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U17" s="50">
         <v>890</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V17" s="50">
         <v>32.1</v>
       </c>
-      <c r="W15" s="56">
+      <c r="W17" s="51">
         <v>1052</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X17" s="50">
         <v>84</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Y17" s="50">
         <v>112</v>
       </c>
-      <c r="Z15" s="55">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="4">
-        <v>4</v>
-      </c>
-      <c r="S16" s="4">
-        <v>4</v>
-      </c>
-      <c r="T16" s="4">
-        <v>20250</v>
-      </c>
-      <c r="U16" s="4">
-        <v>890</v>
-      </c>
-      <c r="V16" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="W16" s="5">
-        <v>1052</v>
-      </c>
-      <c r="X16" s="4">
-        <v>84</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>112</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="4">
-        <v>4</v>
-      </c>
-      <c r="S17" s="4">
-        <v>4</v>
-      </c>
-      <c r="T17" s="4">
-        <v>20250</v>
-      </c>
-      <c r="U17" s="4">
-        <v>890</v>
-      </c>
-      <c r="V17" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="W17" s="5">
-        <v>1052</v>
-      </c>
-      <c r="X17" s="4">
-        <v>84</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>112</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="50">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
+      <c r="F18" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -17143,7 +17490,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>27</v>
@@ -17188,159 +17535,307 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="X26" s="43" t="s">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="4">
+        <v>4</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4</v>
+      </c>
+      <c r="T19" s="4">
+        <v>20250</v>
+      </c>
+      <c r="U19" s="4">
+        <v>890</v>
+      </c>
+      <c r="V19" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1052</v>
+      </c>
+      <c r="X19" s="4">
+        <v>84</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>112</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="4">
+        <v>4</v>
+      </c>
+      <c r="S20" s="4">
+        <v>4</v>
+      </c>
+      <c r="T20" s="4">
+        <v>20250</v>
+      </c>
+      <c r="U20" s="4">
+        <v>890</v>
+      </c>
+      <c r="V20" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1052</v>
+      </c>
+      <c r="X20" s="4">
+        <v>84</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>112</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="X33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="40" t="s">
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D34" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E34" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F34" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I34" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J34" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K34" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M34" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O34" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="P34" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="40" t="s">
+      <c r="Q34" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R34" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="40" t="s">
+      <c r="S34" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="40" t="s">
+      <c r="T34" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U27" s="40" t="s">
+      <c r="U34" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V27" s="40" t="s">
+      <c r="V34" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="40" t="s">
+      <c r="W34" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="X27" s="40" t="s">
+      <c r="X34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Y27" s="40" t="s">
+      <c r="Y34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="40" t="s">
+      <c r="Z34" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="M28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="N28" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="T28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="U28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="V28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="W28" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="X28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y28" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z28" s="58" t="s">
-        <v>202</v>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="S35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="T35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="U35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="V35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="W35" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="X35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z35" s="53" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X33:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17353,8 +17848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C55A6-034E-4AB5-AE25-4EA61AF8A4CD}">
   <dimension ref="B2:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP31" sqref="AP31"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17371,7 +17866,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -17559,24 +18054,24 @@
     <row r="29" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44" t="s">
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="30"/>
@@ -17600,27 +18095,27 @@
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -17630,22 +18125,22 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -17655,17 +18150,17 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -17675,27 +18170,27 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -17718,7 +18213,7 @@
         <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -17728,7 +18223,7 @@
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
+++ b/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804E36A-A966-4D08-8AF8-180566320BC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E85285-6247-4097-97CA-5A72653E88B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="216">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -641,43 +641,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>入力必要項目に入力が無いまま変更しようとしたら必要項目に入力が無いという表示をする</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>各項目に変更内容を入力した後で、「変更」ボタンを押すと、変更の確認を促す警告を表示する</t>
     <rPh sb="0" eb="3">
       <t>カクコウモク</t>
@@ -2083,9 +2046,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フタムラ　ケンジ</t>
-  </si>
-  <si>
     <t>入力必須</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -2747,34 +2707,248 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力のない箇所が分かるように赤色ハッチングする</t>
+    <t>入力必須です</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力必要項目に入力が無いまま変更・追加しようとしたら対象の項目に「入力必須」と表示を赤文字でする</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>アカイロ</t>
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>各マスタ画面のボタンとテーブルの配置を変更した</t>
+    <t>入力必須</t>
+  </si>
+  <si>
+    <t>入力必須</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力必須です</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品品番</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイナーコード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>製品名称</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フリガナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属部署</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限レベルが管理者となっているＩＤ以外の場合、ボタンの表示を薄青色にし、リンクを消す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力必須です</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各マスタ変更画面のボタンとテーブルの配置を変更した</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
     </rPh>
     <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各マスタ画面の変更・追加時に必須項目が入力されていない場合は「入力必須です」と赤文字で表示をする処理を追加した</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒッス</t>
+    </rPh>
     <rPh sb="16" eb="18">
-      <t>ハイチ</t>
+      <t>コウモク</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2787,7 +2961,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2844,6 +3018,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3125,7 +3306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3314,6 +3495,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7155,6 +7342,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7356,6 +7549,139 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>←戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左中かっこ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549E12B9-B506-4F39-9FE5-E8FDB24AB9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9159875" y="6381750"/>
+          <a:ext cx="1651000" cy="3397250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CCD57B-AFA0-4C4C-AF2D-C9B2473C8C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11318875" y="5159374"/>
+          <a:ext cx="1206500" cy="6016625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>管理者以外がログインした場合はボタンの表示がこうなって管理者マスタ変更ページへ飛べない（リンクが無い）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9757,7 +10083,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3379"/>
+                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3402"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10441,8 +10767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11349181" y="9246044"/>
-          <a:ext cx="4318480" cy="1894417"/>
+          <a:off x="11328976" y="9413453"/>
+          <a:ext cx="4322810" cy="1929053"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -11144,8 +11470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3500581" y="9363571"/>
-          <a:ext cx="5250775" cy="1894417"/>
+          <a:off x="3480376" y="9530980"/>
+          <a:ext cx="5246446" cy="1929053"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -11387,13 +11713,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>428374</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>144534</xdr:rowOff>
+      <xdr:rowOff>98353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>547310</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>33803</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>149259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11408,8 +11734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3884588" y="7492391"/>
-          <a:ext cx="1343579" cy="542412"/>
+          <a:off x="3868919" y="7371989"/>
+          <a:ext cx="1342755" cy="535815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12562,8 +12888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11469831" y="9792144"/>
-          <a:ext cx="4328005" cy="1970617"/>
+          <a:off x="11444431" y="9598180"/>
+          <a:ext cx="4322810" cy="1929054"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -13119,8 +13445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3665681" y="9909671"/>
-          <a:ext cx="5196800" cy="1970617"/>
+          <a:off x="3653558" y="9715707"/>
+          <a:ext cx="5188718" cy="1929054"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -14074,14 +14400,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>72572</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>123372</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>123371</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -14096,7 +14422,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15455"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15501"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14137,13 +14463,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14247,13 +14573,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14325,13 +14651,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>234951</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>113392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14403,13 +14729,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>172357</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14481,13 +14807,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>126092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14559,13 +14885,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14639,13 +14965,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>90714</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>141514</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -14661,7 +14987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15456"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15502"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15000,8 +15326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592298EE-EEB0-431B-8895-874AB8F0B5B9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -15031,7 +15357,7 @@
         <v>20190818</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15042,7 +15368,7 @@
         <v>20190819</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15053,7 +15379,7 @@
         <v>20190819</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15064,15 +15390,19 @@
         <v>20190820</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12">
+        <v>20190820</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
@@ -15442,8 +15772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A32CC-A69D-4F2E-8DD5-61F6A3FCE595}">
   <dimension ref="C14:O44"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -15465,13 +15795,13 @@
   <sheetData>
     <row r="14" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
@@ -15486,13 +15816,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -15507,13 +15837,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -15528,13 +15858,13 @@
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -15549,13 +15879,13 @@
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -15570,13 +15900,13 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -15591,13 +15921,13 @@
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
@@ -15612,13 +15942,13 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -15633,13 +15963,13 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -15654,13 +15984,13 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -15675,13 +16005,13 @@
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -15695,14 +16025,14 @@
       <c r="O24" s="55"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="2" t="s">
-        <v>100</v>
+      <c r="C25" s="63" t="s">
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -15717,13 +16047,13 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -15738,13 +16068,13 @@
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -15759,13 +16089,13 @@
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
@@ -15780,13 +16110,13 @@
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -15801,13 +16131,13 @@
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
@@ -15822,19 +16152,25 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="E43" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15846,17 +16182,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C666D1-E849-4E8E-97B7-63A0DE9C13D3}">
-  <dimension ref="B2:P45"/>
+  <dimension ref="B2:P52"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -15866,180 +16202,205 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G25" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G26" s="56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P26" s="54"/>
     </row>
     <row r="27" spans="3:16" s="56" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P27" s="54"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F36" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -16053,8 +16414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC621F0-6118-4D18-B45B-83CA3F500837}">
   <dimension ref="C15:L36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -16076,22 +16437,22 @@
   <sheetData>
     <row r="15" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="E15" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.55000000000000004">
@@ -16099,19 +16460,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="F16" s="53" t="s">
         <v>155</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>156</v>
       </c>
       <c r="G16" s="53">
         <v>1</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.55000000000000004">
@@ -16119,19 +16480,19 @@
         <v>2</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="50">
         <v>1</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.55000000000000004">
@@ -16139,19 +16500,19 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="F18" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.55000000000000004">
@@ -16159,75 +16520,75 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>213</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="34" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="E34" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="F34" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="H34" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="40" t="s">
-        <v>153</v>
-      </c>
       <c r="J34" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="46" t="s">
-        <v>153</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J35" s="41">
         <v>0</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -16235,7 +16596,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -16248,17 +16609,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C0342-B36C-4B9E-9B04-7A47E668D330}">
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -16268,82 +16629,117 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -16387,10 +16783,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16409,7 +16805,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>54</v>
@@ -16420,10 +16816,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16431,10 +16827,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16453,7 +16849,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>33</v>
@@ -16464,10 +16860,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16475,10 +16871,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16486,10 +16882,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16497,10 +16893,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16508,10 +16904,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16853,7 +17249,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -17109,7 +17505,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -17124,72 +17520,72 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -17202,8 +17598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAE1002-3ACA-4B90-AFAB-835F50E4CF68}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X51" sqref="X51"/>
+    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17216,17 +17612,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8449818-2950-4A53-B64C-52037D5AF9F3}">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -17236,42 +17632,47 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -17284,8 +17685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94BF4F-2656-4B2D-89F5-04E6049772B6}">
   <dimension ref="C15:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -17389,13 +17790,13 @@
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="E17" s="48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>26</v>
@@ -17416,7 +17817,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M17" s="48" t="s">
         <v>27</v>
@@ -17463,16 +17864,16 @@
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -17490,7 +17891,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>27</v>
@@ -17537,16 +17938,16 @@
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>27</v>
@@ -17564,7 +17965,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>27</v>
@@ -17611,10 +18012,10 @@
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -17622,8 +18023,8 @@
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
+      <c r="G20" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>27</v>
@@ -17638,7 +18039,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>27</v>
@@ -17766,70 +18167,70 @@
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W35" s="57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Y35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z35" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -17846,10 +18247,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C55A6-034E-4AB5-AE25-4EA61AF8A4CD}">
-  <dimension ref="B2:Q61"/>
+  <dimension ref="B2:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17866,7 +18267,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -18095,27 +18496,27 @@
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -18125,22 +18526,22 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -18150,17 +18551,17 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -18170,27 +18571,27 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -18213,17 +18614,12 @@
         <v>59</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
+++ b/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E85285-6247-4097-97CA-5A72653E88B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8852E2B-B3DE-46EB-80E6-5937D141829D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
     <sheet name="目次" sheetId="1" r:id="rId2"/>
-    <sheet name="画面フロー図" sheetId="8" r:id="rId3"/>
-    <sheet name="ログイン画面" sheetId="4" r:id="rId4"/>
-    <sheet name="ログイン画面　処理" sheetId="5" r:id="rId5"/>
-    <sheet name="管理者画面" sheetId="6" r:id="rId6"/>
-    <sheet name="管理者画面　処理" sheetId="7" r:id="rId7"/>
-    <sheet name="ラインＮＯマスタ変更画面" sheetId="2" r:id="rId8"/>
-    <sheet name="ラインＮＯマスタ変更画面　処理" sheetId="3" r:id="rId9"/>
-    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId10"/>
-    <sheet name="製品マスタ変更画面　処理" sheetId="10" r:id="rId11"/>
-    <sheet name="管理者マスタ変更画面" sheetId="13" r:id="rId12"/>
-    <sheet name="管理者マスタ変更画面　処理" sheetId="14" r:id="rId13"/>
+    <sheet name="URL一覧" sheetId="15" r:id="rId3"/>
+    <sheet name="画面フロー図" sheetId="8" r:id="rId4"/>
+    <sheet name="ログイン画面" sheetId="4" r:id="rId5"/>
+    <sheet name="ログイン画面　処理" sheetId="5" r:id="rId6"/>
+    <sheet name="管理者画面" sheetId="6" r:id="rId7"/>
+    <sheet name="管理者画面　処理" sheetId="7" r:id="rId8"/>
+    <sheet name="ラインＮＯマスタ変更画面" sheetId="2" r:id="rId9"/>
+    <sheet name="ラインＮＯマスタ変更画面　処理" sheetId="3" r:id="rId10"/>
+    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId11"/>
+    <sheet name="製品マスタ変更画面　処理" sheetId="10" r:id="rId12"/>
+    <sheet name="管理者マスタ変更画面" sheetId="13" r:id="rId13"/>
+    <sheet name="管理者マスタ変更画面　処理" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="237">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -2950,6 +2951,159 @@
     <rPh sb="51" eb="53">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/administrator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生産管理板へのログインボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/pcbd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者画面へのログインボタン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産ラインNO変更画面への移動ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/line_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品マスタ変更画面への移動ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者マスタ変更画面への移動ボタン</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/administrator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ出力画面への移動ボタン</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→/data_output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/line_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ出力画面</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/data_output</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3481,6 +3635,12 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3495,12 +3655,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7162,7 +7316,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8670,7 +8824,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -10083,7 +10237,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3402"/>
+                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3422"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11306,7 +11460,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -12888,8 +13042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11444431" y="9598180"/>
-          <a:ext cx="4322810" cy="1929054"/>
+          <a:off x="11469831" y="9792144"/>
+          <a:ext cx="4328005" cy="1970617"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -13281,7 +13435,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -13445,8 +13599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3653558" y="9715707"/>
-          <a:ext cx="5188718" cy="1929054"/>
+          <a:off x="3665681" y="9909671"/>
+          <a:ext cx="5196800" cy="1970617"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -14422,7 +14576,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15501"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15541"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14987,7 +15141,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15502"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15542"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15327,7 +15481,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -15769,10 +15923,401 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C55A6-034E-4AB5-AE25-4EA61AF8A4CD}">
+  <dimension ref="B2:Q60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:AA61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="27"/>
+      <c r="E27" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A32CC-A69D-4F2E-8DD5-61F6A3FCE595}">
   <dimension ref="C14:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -16025,7 +16570,7 @@
       <c r="O24" s="55"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="58" t="s">
         <v>204</v>
       </c>
       <c r="D25" s="2">
@@ -16180,7 +16725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C666D1-E849-4E8E-97B7-63A0DE9C13D3}">
   <dimension ref="B2:P52"/>
   <sheetViews>
@@ -16410,12 +16955,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC621F0-6118-4D18-B45B-83CA3F500837}">
   <dimension ref="C15:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -16522,7 +17067,7 @@
       <c r="D19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="59" t="s">
         <v>213</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -16607,12 +17152,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C0342-B36C-4B9E-9B04-7A47E668D330}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16755,8 +17300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6BF040-FED7-411C-AD9B-F263ECBDEC08}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -17221,16 +17766,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
+    <hyperlink ref="B13" location="'管理者マスタ変更画面　処理'!A1" display="管理者マスタ変更画面　メモ" xr:uid="{7E07320A-17E5-4658-A946-14E691D7B42A}"/>
+    <hyperlink ref="B12" location="管理者マスタ変更画面!A1" display="管理者マスタ変更画面" xr:uid="{49B69709-8910-4EBF-8B37-37C36D154BE0}"/>
+    <hyperlink ref="B11" location="変更履歴!A1" display="変更履歴" xr:uid="{50756C02-F08D-409D-B509-80C67E2D9E20}"/>
+    <hyperlink ref="B10" location="'製品マスタ変更画面　メモ'!A1" display="製品マスタ変更画面　メモ" xr:uid="{0C3C380A-AEC8-4A6A-AE90-9FD0B1105BDC}"/>
+    <hyperlink ref="B9" location="製品マスタ変更画面!A1" display="製品マスタ変更画面" xr:uid="{A59F4A49-73FE-4C99-A5A0-A9C6141DF744}"/>
+    <hyperlink ref="B2" location="画面フロー図!A1" display="画面フロー図" xr:uid="{93F04A82-1216-4203-A4D0-066EF95E94F5}"/>
+    <hyperlink ref="B6" location="'管理者画面　メモ'!A1" display="管理者画面　メモ" xr:uid="{6A425961-B0F3-4964-9F41-0D20263548A9}"/>
+    <hyperlink ref="B5" location="管理者画面!A1" display="管理者画面" xr:uid="{52732FE6-0A5F-4864-8F80-ABC081B897F5}"/>
+    <hyperlink ref="B8" location="'ラインＮＯマスタ変更画面　メモ'!A1" display="ラインＮＯマスタ変更画面　メモ" xr:uid="{BCB5E98D-4C38-46A3-B638-E8BCAC09F0A7}"/>
     <hyperlink ref="B7" location="ラインＮＯマスタ変更画面!A1" display="ラインＮＯマスタ変更画面" xr:uid="{FE2D98FE-EAD0-442B-A774-3074BD58BC29}"/>
-    <hyperlink ref="B8" location="'ラインＮＯマスタ変更画面　メモ'!A1" display="ラインＮＯマスタ変更画面　メモ" xr:uid="{BCB5E98D-4C38-46A3-B638-E8BCAC09F0A7}"/>
-    <hyperlink ref="B5" location="管理者画面!A1" display="管理者画面" xr:uid="{52732FE6-0A5F-4864-8F80-ABC081B897F5}"/>
-    <hyperlink ref="B6" location="'管理者画面　メモ'!A1" display="管理者画面　メモ" xr:uid="{6A425961-B0F3-4964-9F41-0D20263548A9}"/>
-    <hyperlink ref="B2" location="画面フロー図!A1" display="画面フロー図" xr:uid="{93F04A82-1216-4203-A4D0-066EF95E94F5}"/>
-    <hyperlink ref="B9" location="製品マスタ変更画面!A1" display="製品マスタ変更画面" xr:uid="{A59F4A49-73FE-4C99-A5A0-A9C6141DF744}"/>
-    <hyperlink ref="B10" location="'製品マスタ変更画面　メモ'!A1" display="製品マスタ変更画面　メモ" xr:uid="{0C3C380A-AEC8-4A6A-AE90-9FD0B1105BDC}"/>
-    <hyperlink ref="B11" location="変更履歴!A1" display="変更履歴" xr:uid="{50756C02-F08D-409D-B509-80C67E2D9E20}"/>
-    <hyperlink ref="B12" location="管理者マスタ変更画面!A1" display="管理者マスタ変更画面" xr:uid="{49B69709-8910-4EBF-8B37-37C36D154BE0}"/>
-    <hyperlink ref="B13" location="'管理者マスタ変更画面　処理'!A1" display="管理者マスタ変更画面　メモ" xr:uid="{7E07320A-17E5-4658-A946-14E691D7B42A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17238,226 +17783,713 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763FF9CC-3168-47F7-92CD-C54776A6A372}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.25" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="35">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="34">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="35">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="35">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="34">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="36"/>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="35">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="11"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="19"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="11"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="11"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="11"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="11"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="36"/>
+    </row>
+    <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="11"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="11"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="11"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="11"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="11"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="11"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="11"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="11"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="11"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="11"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="11"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="11"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="11"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="15"/>
+    </row>
+    <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="11"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="11"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="11"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="11"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="11"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="11"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="11"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="11"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6521B4A7-CE3B-4BC3-B8E4-4BD3D3222D7E}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17469,7 +18501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA8B2D-5D38-4432-B4BE-BFAC0D1F5C85}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17488,7 +18520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB6B65-5B89-4D0F-835B-1A23519EC18F}">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -17594,12 +18626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAE1002-3ACA-4B90-AFAB-835F50E4CF68}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17610,7 +18642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8449818-2950-4A53-B64C-52037D5AF9F3}">
   <dimension ref="B2:D18"/>
   <sheetViews>
@@ -17681,7 +18713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94BF4F-2656-4B2D-89F5-04E6049772B6}">
   <dimension ref="C15:Z35"/>
   <sheetViews>
@@ -17708,11 +18740,11 @@
   </cols>
   <sheetData>
     <row r="15" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="X15" s="60" t="s">
+      <c r="X15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="6" t="s">
@@ -18023,7 +19055,7 @@
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="58" t="s">
         <v>200</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -18085,11 +19117,11 @@
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="X33" s="60" t="s">
+      <c r="X33" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="40" t="s">
@@ -18243,395 +19275,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C55A6-034E-4AB5-AE25-4EA61AF8A4CD}">
-  <dimension ref="B2:Q60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:AA61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="27"/>
-      <c r="E27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="62"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
+++ b/関連帳票/画面レイアウト/pcbd_画面レイアウト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8852E2B-B3DE-46EB-80E6-5937D141829D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54A1EB-664B-43D6-BD41-CAF1B249B90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="10780" windowHeight="9050" firstSheet="3" activeTab="3" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -10237,7 +10237,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3422"/>
+                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3425"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14576,7 +14576,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15541"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s15547"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15141,7 +15141,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15542"/>
+                  <a14:cameraTool cellRange="管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s15548"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -18273,8 +18273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6521B4A7-CE3B-4BC3-B8E4-4BD3D3222D7E}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
